--- a/musicals.xlsx
+++ b/musicals.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,7 +761,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>拜访森林</t>
+          <t>天鹅湖</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -771,24 +771,24 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>伯纳黛特·彼得斯,乔安娜·格里森,奇普·兹恩,Joy Franz,Edmund Lyndeck</t>
+          <t>Uliana Lopatkina,Danila Korsuntev,Alexandra Gronskaya,Ilya Kuznetsov,Andrei Ivanov</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/25741291/</t>
+          <t>https://movie.douban.com/subject/5962567/</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2591308441.jpg</t>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2444776729.jpg</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>天鹅湖</t>
+          <t>拜访森林</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -798,17 +798,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Uliana Lopatkina,Danila Korsuntev,Alexandra Gronskaya,Ilya Kuznetsov,Andrei Ivanov</t>
+          <t>伯纳黛特·彼得斯,乔安娜·格里森,奇普·兹恩,Joy Franz,Edmund Lyndeck</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/5962567/</t>
+          <t>https://movie.douban.com/subject/25741291/</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2444776729.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2591308441.jpg</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>拜访森林</t>
+          <t>天鹅湖</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1041,24 +1041,24 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>伯纳黛特·彼得斯,乔安娜·格里森,奇普·兹恩,Joy Franz,Edmund Lyndeck</t>
+          <t>Uliana Lopatkina,Danila Korsuntev,Alexandra Gronskaya,Ilya Kuznetsov,Andrei Ivanov</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/25741291/</t>
+          <t>https://movie.douban.com/subject/5962567/</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2591308441.jpg</t>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2444776729.jpg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>天鹅湖</t>
+          <t>拜访森林</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Uliana Lopatkina,Danila Korsuntev,Alexandra Gronskaya,Ilya Kuznetsov,Andrei Ivanov</t>
+          <t>伯纳黛特·彼得斯,乔安娜·格里森,奇普·兹恩,Joy Franz,Edmund Lyndeck</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/5962567/</t>
+          <t>https://movie.douban.com/subject/25741291/</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2444776729.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2591308441.jpg</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>弄臣</t>
+          <t>伙伴们</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1365,24 +1365,24 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ingvar Wixell,卢奇亚诺·帕瓦罗蒂,Kathleen Kuhlmann,爱狄塔·格鲁贝罗娃,Ferruccio Furlanetto</t>
+          <t>Angel Desai,Barbara Walsh,劳尔·埃斯帕扎</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1443651/</t>
+          <t>https://movie.douban.com/subject/6524294/</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2567462591.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2591617154.jpg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>星期天与乔治同游公园</t>
+          <t>弄臣</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1392,24 +1392,24 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>曼迪·帕廷金,伯纳黛特·彼得斯,布伦特·斯皮内,丹娜·爱薇,罗伯特·韦斯滕贝格</t>
+          <t>Ingvar Wixell,卢奇亚诺·帕瓦罗蒂,Kathleen Kuhlmann,爱狄塔·格鲁贝罗娃,Ferruccio Furlanetto</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1304265/</t>
+          <t>https://movie.douban.com/subject/1443651/</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2526000471.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2567462591.jpg</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>伙伴们</t>
+          <t>大河之舞</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1419,24 +1419,24 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Angel Desai,Barbara Walsh,劳尔·埃斯帕扎</t>
+          <t>伍秀芳</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/6524294/</t>
+          <t>https://movie.douban.com/subject/27181740/</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2591617154.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2503246692.jpg</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>大河之舞</t>
+          <t>星期天与乔治同游公园</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1446,17 +1446,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>伍秀芳</t>
+          <t>曼迪·帕廷金,伯纳黛特·彼得斯,布伦特·斯皮内,丹娜·爱薇,罗伯特·韦斯滕贝格</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/27181740/</t>
+          <t>https://movie.douban.com/subject/1304265/</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2503246692.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2526000471.jpg</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>弄臣</t>
+          <t>伙伴们</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1635,24 +1635,24 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ingvar Wixell,卢奇亚诺·帕瓦罗蒂,Kathleen Kuhlmann,爱狄塔·格鲁贝罗娃,Ferruccio Furlanetto</t>
+          <t>Angel Desai,Barbara Walsh,劳尔·埃斯帕扎</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1443651/</t>
+          <t>https://movie.douban.com/subject/6524294/</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2567462591.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2591617154.jpg</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>星期天与乔治同游公园</t>
+          <t>弄臣</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1662,24 +1662,24 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>曼迪·帕廷金,伯纳黛特·彼得斯,布伦特·斯皮内,丹娜·爱薇,罗伯特·韦斯滕贝格</t>
+          <t>Ingvar Wixell,卢奇亚诺·帕瓦罗蒂,Kathleen Kuhlmann,爱狄塔·格鲁贝罗娃,Ferruccio Furlanetto</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1304265/</t>
+          <t>https://movie.douban.com/subject/1443651/</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2526000471.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2567462591.jpg</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>伙伴们</t>
+          <t>大河之舞</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1689,24 +1689,24 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Angel Desai,Barbara Walsh,劳尔·埃斯帕扎</t>
+          <t>伍秀芳</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/6524294/</t>
+          <t>https://movie.douban.com/subject/27181740/</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2591617154.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2503246692.jpg</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>大河之舞</t>
+          <t>星期天与乔治同游公园</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1716,17 +1716,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>伍秀芳</t>
+          <t>曼迪·帕廷金,伯纳黛特·彼得斯,布伦特·斯皮内,丹娜·爱薇,罗伯特·韦斯滕贝格</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/27181740/</t>
+          <t>https://movie.douban.com/subject/1304265/</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2503246692.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2526000471.jpg</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>第67届托尼奖颁奖典礼</t>
+          <t>莫扎特 歌剧《唐·乔万尼》（唐璜）</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1770,24 +1770,24 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>尼尔·帕特里克·哈里斯,扎克瑞·昆图,杰西·泰勒·弗格森,安德鲁·兰内斯,艾伦·卡明</t>
+          <t>Otto Edelmann,Elisabeth Grümmer,Cesare Siepi,威廉·富特文格勒,Lisa della Casa</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/24737983/</t>
+          <t>https://movie.douban.com/subject/1877242/</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1995597633.jpg</t>
+          <t>https://img3.doubanio.com/view/subject/l/public/s1812251.jpg</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>卡门</t>
+          <t>仙女</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1797,24 +1797,24 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>安娜斯·巴尔莎,何塞·卡雷拉斯,Samuel Ramey,利昂娜·米切尔,Myra Merritt</t>
+          <t>马休•加尼奥(</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1448669/</t>
+          <t>https://movie.douban.com/subject/2139906/</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2589350775.jpg</t>
+          <t>https://img3.doubanio.com/view/subject/l/public/s2581461.jpg</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>胡桃夹子</t>
+          <t>卡门</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1824,24 +1824,24 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Anthony Dowell,Gerd Larsen,Viviana Durante,Lesley Collier,Derek Rencher</t>
+          <t>安娜斯·巴尔莎,何塞·卡雷拉斯,Samuel Ramey,利昂娜·米切尔,Myra Merritt</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/3220585/</t>
+          <t>https://movie.douban.com/subject/1448669/</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/subject/l/public/s3264335.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2589350775.jpg</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>仙女</t>
+          <t>胡桃夹子</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1851,24 +1851,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>马休•加尼奥(</t>
+          <t>Anthony Dowell,Gerd Larsen,Viviana Durante,Lesley Collier,Derek Rencher</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/2139906/</t>
+          <t>https://movie.douban.com/subject/3220585/</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/subject/l/public/s2581461.jpg</t>
+          <t>https://img9.doubanio.com/view/subject/l/public/s3264335.jpg</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>莫扎特 歌剧《唐·乔万尼》（唐璜）</t>
+          <t>第67届托尼奖颁奖典礼</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1878,17 +1878,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Otto Edelmann,Elisabeth Grümmer,Cesare Siepi,威廉·富特文格勒,Lisa della Casa</t>
+          <t>尼尔·帕特里克·哈里斯,扎克瑞·昆图,杰西·泰勒·弗格森,安德鲁·兰内斯,艾伦·卡明</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1877242/</t>
+          <t>https://movie.douban.com/subject/24737983/</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/subject/l/public/s1812251.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1995597633.jpg</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>第67届托尼奖颁奖典礼</t>
+          <t>莫扎特 歌剧《唐·乔万尼》（唐璜）</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2040,24 +2040,24 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>尼尔·帕特里克·哈里斯,扎克瑞·昆图,杰西·泰勒·弗格森,安德鲁·兰内斯,艾伦·卡明</t>
+          <t>Otto Edelmann,Elisabeth Grümmer,Cesare Siepi,威廉·富特文格勒,Lisa della Casa</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/24737983/</t>
+          <t>https://movie.douban.com/subject/1877242/</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1995597633.jpg</t>
+          <t>https://img3.doubanio.com/view/subject/l/public/s1812251.jpg</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>卡门</t>
+          <t>仙女</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2067,24 +2067,24 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>安娜斯·巴尔莎,何塞·卡雷拉斯,Samuel Ramey,利昂娜·米切尔,Myra Merritt</t>
+          <t>马休•加尼奥(</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1448669/</t>
+          <t>https://movie.douban.com/subject/2139906/</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2589350775.jpg</t>
+          <t>https://img3.doubanio.com/view/subject/l/public/s2581461.jpg</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>胡桃夹子</t>
+          <t>卡门</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2094,24 +2094,24 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Anthony Dowell,Gerd Larsen,Viviana Durante,Lesley Collier,Derek Rencher</t>
+          <t>安娜斯·巴尔莎,何塞·卡雷拉斯,Samuel Ramey,利昂娜·米切尔,Myra Merritt</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/3220585/</t>
+          <t>https://movie.douban.com/subject/1448669/</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://img9.doubanio.com/view/subject/l/public/s3264335.jpg</t>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2589350775.jpg</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>仙女</t>
+          <t>胡桃夹子</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2121,24 +2121,24 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>马休•加尼奥(</t>
+          <t>Anthony Dowell,Gerd Larsen,Viviana Durante,Lesley Collier,Derek Rencher</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/2139906/</t>
+          <t>https://movie.douban.com/subject/3220585/</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/subject/l/public/s2581461.jpg</t>
+          <t>https://img9.doubanio.com/view/subject/l/public/s3264335.jpg</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>莫扎特 歌剧《唐·乔万尼》（唐璜）</t>
+          <t>第67届托尼奖颁奖典礼</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2148,17 +2148,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Otto Edelmann,Elisabeth Grümmer,Cesare Siepi,威廉·富特文格勒,Lisa della Casa</t>
+          <t>尼尔·帕特里克·哈里斯,扎克瑞·昆图,杰西·泰勒·弗格森,安德鲁·兰内斯,艾伦·卡明</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1877242/</t>
+          <t>https://movie.douban.com/subject/24737983/</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/subject/l/public/s1812251.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1995597633.jpg</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>歌厅</t>
+          <t>天鹅湖</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2364,24 +2364,24 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>简·霍洛克斯,艾伦·卡明,亚当·戈德利,莎拉·克斯托曼</t>
+          <t>鲁道夫·努里耶夫,玛戈特·芳婷</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/4047130/</t>
+          <t>https://movie.douban.com/subject/1447030/</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2514836300.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2541068660.jpg</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>天鹅湖</t>
+          <t>歌厅</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2391,17 +2391,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>鲁道夫·努里耶夫,玛戈特·芳婷</t>
+          <t>简·霍洛克斯,艾伦·卡明,亚当·戈德利,莎拉·克斯托曼</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://movie.douban.com/subject/1447030/</t>
+          <t>https://movie.douban.com/subject/4047130/</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2541068660.jpg</t>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2514836300.jpg</t>
         </is>
       </c>
     </row>
@@ -2537,6 +2537,546 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p643090411.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>猫</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>伊莲·佩姬,约翰·米尔斯,肯·帕吉,罗斯玛丽·福特,Michael Gruber</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/24882759/</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2575264522.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>悲惨世界：上演音乐会</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>迈克尔·波尔,阿尔菲·博,卡莉·霍普·弗莱彻,马特·卢卡斯</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/34892489/</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2574521473.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>破铜烂铁演唱会</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Paul Bend,John Sawicki,Andy Patrick,Nathaniel Conroy,Keith Middleton</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/3889838/</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p895994987.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>天鹅湖</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鲁道夫·努里耶夫,玛戈特·芳婷</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1447030/</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2541068660.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>歌厅</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>简·霍洛克斯,艾伦·卡明,亚当·戈德利,莎拉·克斯托曼</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/4047130/</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2514836300.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>卡门</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Anna Caterina Antonacci,Jean-Paul Fouchécourt</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/3800630/</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p2569822435.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>布兰诗歌</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Lucia Popp,赫尔曼·佩雷,Michel Jacot,Benno Hoffmann,米夏埃尔·哈贝克</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/3711072/</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/subject/l/public/s3764132.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>洛基恐怖致敬秀</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>克里斯托弗·李,理查德·奥布里恩</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/3539046/</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/subject/l/public/s3598686.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>歌厅</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>丽莎·明奈利,麦克尔·约克,赫尔穆特·格里姆,乔尔·格雷,弗里茨·维伯</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1296282/</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/photo/s_ratio_poster/public/p1345340636.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>幻想曲2000</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>史蒂夫·马丁,伊扎克·帕尔曼,昆西·琼斯,贝特·米德勒,詹姆斯·厄尔·琼斯</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1301777/</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p643090411.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>报童传奇</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Jeremy Jordan,Kara Lindsay,Ben Fankhauser,Andrew Keenan-Bolger,Steve Blanchard</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/26976388/</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2430015800.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>费加罗的婚礼</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Francis Egerton,Carlos Feller,Rodney Gilfry,Alison Hagley,布莱恩·特菲尔</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1434323/</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://img9.doubanio.com/view/subject/l/public/s1462096.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>蝙蝠侠同人音乐剧</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Joe Walker</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/10604551/</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2591617892.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>茶花女</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Roderick Earle,安吉拉·乔治乌,Robin Leggate,弗兰克·罗帕尔多,Leo Nucci</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1443649/</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2535668418.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>莫扎特－歌剧《费加罗的婚礼》</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Donald Adams,蕾妮·弗莱明,Alison Hagley,Susan Gritton,安德烈亚斯·施密特</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1827608/</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/subject/l/public/s3810562.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>柴科夫斯基－歌剧《叶甫盖尼·奥涅金》</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Peter Mattei,约瑟夫·凯泽,Ferruccio Furlanetto</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/3753078/</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/subject/l/public/s3800152.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>唐·璜</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Senta Wengraf,Hans von Borsody,Lotte Tobisch,Jean Vinci,西萨尔·达诺瓦</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/3896734/</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://img1.doubanio.com/view/photo/s_ratio_poster/public/p2474091377.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>第65届托尼奖颁奖典礼</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>弗兰克·阿巴内尔,尼尔·帕特里克·哈里斯,艾伦·特维特</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/6524065/</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p1341186053.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Sondheim卡耐基音乐大厅庆祝音乐会</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>凯文·安德森,George Lee Andrews,Mark Jacoby,Jerry Hadley,Harolyn Blackwell</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1890605/</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2600832692.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>芝加哥</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>蕾妮·齐薇格,凯瑟琳·泽塔-琼斯,理查·基尔,奎恩·拉提法,约翰·C·赖利</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://movie.douban.com/subject/1307697/</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://img3.doubanio.com/view/photo/s_ratio_poster/public/p2454020352.jpg</t>
         </is>
       </c>
     </row>
